--- a/자막 전환비 계산.xlsx
+++ b/자막 전환비 계산.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10314"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/heujoonkim/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/heujoonkim/projects/tjcbrand/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACE39DFE-05BE-2A46-8A73-8997578DE0EB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89254C6D-E705-2642-A653-3F602EEDDECA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="500" windowWidth="28300" windowHeight="16560" xr2:uid="{BA3A7D7E-F833-C04C-947B-D91C6067E821}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -74,7 +74,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="0.000"/>
+    <numFmt numFmtId="176" formatCode="0.000"/>
   </numFmts>
   <fonts count="3">
     <font>
@@ -130,7 +130,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1">
@@ -454,7 +454,7 @@
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -537,11 +537,11 @@
         <v>0.1</v>
       </c>
       <c r="C6" s="1">
-        <f>B6+$F$3</f>
+        <f t="shared" ref="C6:C11" si="0">B6+$F$3</f>
         <v>0.12000000000000001</v>
       </c>
       <c r="D6" s="1">
-        <f>(B6+F6)/2</f>
+        <f>(C6+E6)/2</f>
         <v>0.16250000000000001</v>
       </c>
       <c r="E6" s="1">
@@ -558,23 +558,23 @@
         <v>2</v>
       </c>
       <c r="B7" s="1">
-        <f t="shared" ref="B7:B11" si="0">F6</f>
+        <f t="shared" ref="B7:B11" si="1">F6</f>
         <v>0.22500000000000001</v>
       </c>
       <c r="C7" s="1">
-        <f>B7+$F$3</f>
+        <f t="shared" si="0"/>
         <v>0.245</v>
       </c>
       <c r="D7" s="1">
-        <f t="shared" ref="D7:D11" si="1">(B7+F7)/2</f>
+        <f t="shared" ref="D7:D11" si="2">(C7+E7)/2</f>
         <v>0.28749999999999998</v>
       </c>
       <c r="E7" s="1">
-        <f t="shared" ref="E7:E11" si="2">B7+$C$3-$F$3</f>
+        <f t="shared" ref="E7:E11" si="3">B7+$C$3-$F$3</f>
         <v>0.32999999999999996</v>
       </c>
       <c r="F7" s="1">
-        <f t="shared" ref="F7:F11" si="3">B7+$C$3</f>
+        <f t="shared" ref="F7:F11" si="4">B7+$C$3</f>
         <v>0.35</v>
       </c>
     </row>
@@ -583,23 +583,23 @@
         <v>3</v>
       </c>
       <c r="B8" s="1">
+        <f t="shared" si="1"/>
+        <v>0.35</v>
+      </c>
+      <c r="C8" s="1">
         <f t="shared" si="0"/>
-        <v>0.35</v>
-      </c>
-      <c r="C8" s="1">
-        <f>B8+$F$3</f>
         <v>0.37</v>
       </c>
       <c r="D8" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.41249999999999998</v>
       </c>
       <c r="E8" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.45499999999999996</v>
       </c>
       <c r="F8" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.47499999999999998</v>
       </c>
     </row>
@@ -608,23 +608,23 @@
         <v>4</v>
       </c>
       <c r="B9" s="1">
+        <f t="shared" si="1"/>
+        <v>0.47499999999999998</v>
+      </c>
+      <c r="C9" s="1">
         <f t="shared" si="0"/>
-        <v>0.47499999999999998</v>
-      </c>
-      <c r="C9" s="1">
-        <f>B9+$F$3</f>
         <v>0.495</v>
       </c>
       <c r="D9" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.53749999999999998</v>
       </c>
       <c r="E9" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.57999999999999996</v>
       </c>
       <c r="F9" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.6</v>
       </c>
     </row>
@@ -633,23 +633,23 @@
         <v>5</v>
       </c>
       <c r="B10" s="1">
+        <f t="shared" si="1"/>
+        <v>0.6</v>
+      </c>
+      <c r="C10" s="1">
         <f t="shared" si="0"/>
-        <v>0.6</v>
-      </c>
-      <c r="C10" s="1">
-        <f>B10+$F$3</f>
         <v>0.62</v>
       </c>
       <c r="D10" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.66249999999999998</v>
       </c>
       <c r="E10" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.70499999999999996</v>
       </c>
       <c r="F10" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.72499999999999998</v>
       </c>
     </row>
@@ -658,23 +658,23 @@
         <v>6</v>
       </c>
       <c r="B11" s="1">
+        <f t="shared" si="1"/>
+        <v>0.72499999999999998</v>
+      </c>
+      <c r="C11" s="1">
         <f t="shared" si="0"/>
-        <v>0.72499999999999998</v>
-      </c>
-      <c r="C11" s="1">
-        <f>B11+$F$3</f>
         <v>0.745</v>
       </c>
       <c r="D11" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.78749999999999998</v>
       </c>
       <c r="E11" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.83</v>
       </c>
       <c r="F11" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.85</v>
       </c>
     </row>
